--- a/artfynd/A 51856-2019.xlsx
+++ b/artfynd/A 51856-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103306942</v>
+        <v>103306948</v>
       </c>
       <c r="B2" t="n">
-        <v>78602</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6463</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>615243.9621432471</v>
+        <v>615397.7041400182</v>
       </c>
       <c r="R2" t="n">
-        <v>7223727.877828724</v>
+        <v>7223725.850324323</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -776,21 +776,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -811,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103306943</v>
+        <v>103306942</v>
       </c>
       <c r="B3" t="n">
-        <v>89388</v>
+        <v>78602</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>6463</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -851,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>615238.5067762507</v>
+        <v>615243.9621432471</v>
       </c>
       <c r="R3" t="n">
-        <v>7223748.74792649</v>
+        <v>7223727.877828724</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -910,17 +895,17 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -942,10 +927,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103306939</v>
+        <v>103306943</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>89388</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -958,39 +943,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Estbergskojan, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>615264.2335436697</v>
+        <v>615238.5067762507</v>
       </c>
       <c r="R4" t="n">
-        <v>7223629.999263954</v>
+        <v>7223748.74792649</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1043,6 +1023,21 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1063,10 +1058,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103306940</v>
+        <v>103306939</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1075,38 +1070,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Estbergskojan, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>615261.0371939046</v>
+        <v>615264.2335436697</v>
       </c>
       <c r="R5" t="n">
-        <v>7223636.199837528</v>
+        <v>7223629.999263954</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103306941</v>
+        <v>103306940</v>
       </c>
       <c r="B6" t="n">
-        <v>96237</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,25 +1191,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220093</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>615248.9590524008</v>
+        <v>615261.0371939046</v>
       </c>
       <c r="R6" t="n">
-        <v>7223718.795936605</v>
+        <v>7223636.199837528</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103306937</v>
+        <v>103306941</v>
       </c>
       <c r="B7" t="n">
-        <v>56411</v>
+        <v>96237</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1307,43 +1307,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>220093</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Estbergskojan, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>615266.3006582296</v>
+        <v>615248.9590524008</v>
       </c>
       <c r="R7" t="n">
-        <v>7223609.418203933</v>
+        <v>7223718.795936605</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1416,10 +1411,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103306938</v>
+        <v>103306937</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>56411</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1432,16 +1427,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1461,10 +1456,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>615266.2679016123</v>
+        <v>615266.3006582296</v>
       </c>
       <c r="R8" t="n">
-        <v>7223610.260257882</v>
+        <v>7223609.418203933</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1537,10 +1532,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103306948</v>
+        <v>103306938</v>
       </c>
       <c r="B9" t="n">
-        <v>90653</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1549,38 +1544,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Estbergskojan, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>615397.7041400182</v>
+        <v>615266.2679016123</v>
       </c>
       <c r="R9" t="n">
-        <v>7223725.850324323</v>
+        <v>7223610.260257882</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>

--- a/artfynd/A 51856-2019.xlsx
+++ b/artfynd/A 51856-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103306948</v>
+        <v>103306942</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>78602</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6463</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>615397.7041400182</v>
+        <v>615243.9621432471</v>
       </c>
       <c r="R2" t="n">
-        <v>7223725.850324323</v>
+        <v>7223727.877828724</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -776,6 +776,21 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -796,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>103306942</v>
+        <v>103306943</v>
       </c>
       <c r="B3" t="n">
-        <v>78602</v>
+        <v>89388</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +823,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6463</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +851,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>615243.9621432471</v>
+        <v>615238.5067762507</v>
       </c>
       <c r="R3" t="n">
-        <v>7223727.877828724</v>
+        <v>7223748.74792649</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,17 +910,17 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -927,10 +942,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>103306943</v>
+        <v>103306939</v>
       </c>
       <c r="B4" t="n">
-        <v>89388</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,34 +958,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Estbergskojan, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>615238.5067762507</v>
+        <v>615264.2335436697</v>
       </c>
       <c r="R4" t="n">
-        <v>7223748.74792649</v>
+        <v>7223629.999263954</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1023,21 +1043,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1058,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103306939</v>
+        <v>103306940</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,43 +1075,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Estbergskojan, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>615264.2335436697</v>
+        <v>615261.0371939046</v>
       </c>
       <c r="R5" t="n">
-        <v>7223629.999263954</v>
+        <v>7223636.199837528</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103306940</v>
+        <v>103306941</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>96237</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,25 +1191,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>220093</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>615261.0371939046</v>
+        <v>615248.9590524008</v>
       </c>
       <c r="R6" t="n">
-        <v>7223636.199837528</v>
+        <v>7223718.795936605</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103306941</v>
+        <v>103306937</v>
       </c>
       <c r="B7" t="n">
-        <v>96237</v>
+        <v>56411</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1307,38 +1307,43 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220093</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Estbergskojan, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>615248.9590524008</v>
+        <v>615266.3006582296</v>
       </c>
       <c r="R7" t="n">
-        <v>7223718.795936605</v>
+        <v>7223609.418203933</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1411,10 +1416,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103306937</v>
+        <v>103306938</v>
       </c>
       <c r="B8" t="n">
-        <v>56411</v>
+        <v>56395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1427,16 +1432,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1456,10 +1461,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>615266.3006582296</v>
+        <v>615266.2679016123</v>
       </c>
       <c r="R8" t="n">
-        <v>7223609.418203933</v>
+        <v>7223610.260257882</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1532,10 +1537,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103306938</v>
+        <v>103306948</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>90653</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1544,43 +1549,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Estbergskojan, Storuman, Ly lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>615266.2679016123</v>
+        <v>615397.7041400182</v>
       </c>
       <c r="R9" t="n">
-        <v>7223610.260257882</v>
+        <v>7223725.850324323</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
